--- a/notebooks/SETD2/input/SETD2_RAPAS_individuals.xlsx
+++ b/notebooks/SETD2/input/SETD2_RAPAS_individuals.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robin/GIT/phenopacket-store/notebooks/SETD2/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5521DBE5-58F9-8940-90E0-43403EDB79BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F3E864-D672-D942-B7C7-77F59FE81AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7280" yWindow="12900" windowWidth="55880" windowHeight="10480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7840" yWindow="4700" windowWidth="55200" windowHeight="20260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -362,9 +362,6 @@
     <t>observed</t>
   </si>
   <si>
-    <t>Caesarian section</t>
-  </si>
-  <si>
     <t>HP:0011410</t>
   </si>
   <si>
@@ -1193,9 +1190,6 @@
     <t>HP:0000729</t>
   </si>
   <si>
-    <t>Autism spectrum disorder</t>
-  </si>
-  <si>
     <t>Prominent forehead</t>
   </si>
   <si>
@@ -1263,6 +1257,12 @@
   </si>
   <si>
     <t>Fetal onset</t>
+  </si>
+  <si>
+    <t>Caesarean section</t>
+  </si>
+  <si>
+    <t>Autistic behavior</t>
   </si>
 </sst>
 </file>
@@ -1650,8 +1650,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:GA19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EY1" workbookViewId="0">
-      <selection activeCell="FT1" sqref="FT1:FT1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AG1" sqref="AG1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1709,61 +1709,61 @@
         <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AE1" t="s">
         <v>383</v>
       </c>
       <c r="AF1" t="s">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="AG1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH1" t="s">
         <v>129</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>130</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>131</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>132</v>
       </c>
       <c r="AK1" t="s">
         <v>28</v>
@@ -1778,10 +1778,10 @@
         <v>29</v>
       </c>
       <c r="AO1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AP1" t="s">
         <v>133</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>134</v>
       </c>
       <c r="AQ1" t="s">
         <v>44</v>
@@ -1790,22 +1790,22 @@
         <v>33</v>
       </c>
       <c r="AS1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT1" t="s">
         <v>135</v>
       </c>
-      <c r="AT1" t="s">
+      <c r="AU1" t="s">
         <v>136</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>137</v>
       </c>
       <c r="AV1" t="s">
         <v>27</v>
       </c>
       <c r="AW1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AX1" t="s">
         <v>138</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>139</v>
       </c>
       <c r="AY1" t="s">
         <v>43</v>
@@ -1814,58 +1814,58 @@
         <v>38</v>
       </c>
       <c r="BA1" t="s">
+        <v>139</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>154</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="BQ1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BS1" s="1" t="s">
         <v>46</v>
@@ -1874,136 +1874,136 @@
         <v>23</v>
       </c>
       <c r="BU1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="BV1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="BW1" s="1" t="s">
+      <c r="BX1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="BX1" s="1" t="s">
+      <c r="BY1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="BY1" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="BZ1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="CA1" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="CA1" s="1" t="s">
+      <c r="CB1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="CB1" s="1" t="s">
+      <c r="CC1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="CF1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="CG1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="CH1" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CI1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="CJ1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CK1" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>176</v>
       </c>
       <c r="CR1" s="1" t="s">
         <v>17</v>
       </c>
       <c r="CS1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="CT1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>178</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="CV1" s="1" t="s">
         <v>40</v>
       </c>
       <c r="CW1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CZ1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="DA1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="DC1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="DD1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="DE1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DF1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DG1" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="DM1" s="1" t="s">
         <v>36</v>
@@ -2015,193 +2015,193 @@
         <v>25</v>
       </c>
       <c r="DP1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="DQ1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="DT1" s="1" t="s">
-        <v>199</v>
       </c>
       <c r="DU1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="DV1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="DW1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="EI1" s="1" t="s">
-        <v>213</v>
-      </c>
       <c r="EJ1" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="EK1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="EL1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="EM1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="EO1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="EP1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="EQ1" s="1" t="s">
+      <c r="ER1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="ER1" s="1" t="s">
+      <c r="ES1" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="ES1" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="ET1" s="1" t="s">
         <v>26</v>
       </c>
       <c r="EU1" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="EV1" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="EV1" s="1" t="s">
+      <c r="EW1" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="EW1" s="1" t="s">
+      <c r="EX1" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="EX1" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="EY1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="EZ1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="FA1" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="FA1" s="1" t="s">
+      <c r="FB1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="FC1" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="FB1" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="FC1" s="1" t="s">
+      <c r="FD1" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="FD1" s="1" t="s">
+      <c r="FE1" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="FE1" s="1" t="s">
+      <c r="FF1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="FF1" s="1" t="s">
+      <c r="FG1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="FG1" s="1" t="s">
+      <c r="FH1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="FH1" s="1" t="s">
+      <c r="FI1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="FI1" s="1" t="s">
+      <c r="FJ1" s="1" t="s">
         <v>236</v>
-      </c>
-      <c r="FJ1" s="1" t="s">
-        <v>237</v>
       </c>
       <c r="FK1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="FL1" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="FM1" s="1" t="s">
         <v>238</v>
-      </c>
-      <c r="FM1" s="1" t="s">
-        <v>239</v>
       </c>
       <c r="FN1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="FO1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="FP1" t="s">
+        <v>397</v>
+      </c>
+      <c r="FQ1" t="s">
+        <v>398</v>
+      </c>
+      <c r="FR1" t="s">
         <v>399</v>
       </c>
-      <c r="FQ1" t="s">
+      <c r="FS1" t="s">
         <v>400</v>
       </c>
-      <c r="FR1" t="s">
+      <c r="FT1" t="s">
         <v>401</v>
       </c>
-      <c r="FS1" t="s">
+      <c r="FU1" t="s">
         <v>402</v>
       </c>
-      <c r="FT1" t="s">
+      <c r="FV1" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="FW1" s="4" t="s">
         <v>403</v>
-      </c>
-      <c r="FU1" t="s">
-        <v>404</v>
-      </c>
-      <c r="FV1" s="4" t="s">
-        <v>408</v>
-      </c>
-      <c r="FW1" s="4" t="s">
-        <v>405</v>
       </c>
       <c r="FX1" s="4" t="s">
         <v>21</v>
       </c>
       <c r="FY1" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="FZ1" s="4" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2" spans="1:182" ht="16" x14ac:dyDescent="0.2">
@@ -2257,61 +2257,61 @@
         <v>58</v>
       </c>
       <c r="R2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="S2" t="s">
         <v>73</v>
       </c>
       <c r="T2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="U2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="V2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="W2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="X2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Z2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AA2" t="s">
         <v>76</v>
       </c>
       <c r="AB2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AD2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AE2" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF2" t="s">
         <v>384</v>
       </c>
-      <c r="AF2" t="s">
-        <v>386</v>
-      </c>
       <c r="AG2" t="s">
+        <v>239</v>
+      </c>
+      <c r="AH2" t="s">
         <v>240</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>241</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>242</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>243</v>
       </c>
       <c r="AK2" t="s">
         <v>70</v>
@@ -2326,10 +2326,10 @@
         <v>71</v>
       </c>
       <c r="AO2" t="s">
+        <v>243</v>
+      </c>
+      <c r="AP2" t="s">
         <v>244</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>245</v>
       </c>
       <c r="AQ2" t="s">
         <v>86</v>
@@ -2338,22 +2338,22 @@
         <v>75</v>
       </c>
       <c r="AS2" t="s">
+        <v>245</v>
+      </c>
+      <c r="AT2" t="s">
         <v>246</v>
       </c>
-      <c r="AT2" t="s">
+      <c r="AU2" t="s">
         <v>247</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>248</v>
       </c>
       <c r="AV2" t="s">
         <v>69</v>
       </c>
       <c r="AW2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AX2" t="s">
         <v>249</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>250</v>
       </c>
       <c r="AY2" t="s">
         <v>85</v>
@@ -2362,58 +2362,58 @@
         <v>80</v>
       </c>
       <c r="BA2" t="s">
+        <v>250</v>
+      </c>
+      <c r="BB2" t="s">
         <v>251</v>
       </c>
-      <c r="BB2" t="s">
+      <c r="BC2" t="s">
         <v>252</v>
       </c>
-      <c r="BC2" t="s">
+      <c r="BD2" t="s">
         <v>253</v>
       </c>
-      <c r="BD2" t="s">
+      <c r="BE2" t="s">
         <v>254</v>
       </c>
-      <c r="BE2" t="s">
+      <c r="BF2" t="s">
         <v>255</v>
       </c>
-      <c r="BF2" t="s">
+      <c r="BG2" t="s">
         <v>256</v>
       </c>
-      <c r="BG2" t="s">
+      <c r="BH2" t="s">
         <v>257</v>
       </c>
-      <c r="BH2" t="s">
+      <c r="BI2" t="s">
         <v>258</v>
       </c>
-      <c r="BI2" t="s">
+      <c r="BJ2" t="s">
         <v>259</v>
       </c>
-      <c r="BJ2" t="s">
+      <c r="BK2" t="s">
         <v>260</v>
       </c>
-      <c r="BK2" t="s">
+      <c r="BL2" t="s">
         <v>261</v>
       </c>
-      <c r="BL2" t="s">
+      <c r="BM2" t="s">
         <v>262</v>
       </c>
-      <c r="BM2" t="s">
+      <c r="BN2" t="s">
         <v>263</v>
       </c>
-      <c r="BN2" t="s">
+      <c r="BO2" t="s">
         <v>264</v>
       </c>
-      <c r="BO2" t="s">
+      <c r="BP2" t="s">
         <v>265</v>
-      </c>
-      <c r="BP2" t="s">
-        <v>266</v>
       </c>
       <c r="BQ2" t="s">
         <v>87</v>
       </c>
       <c r="BR2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="BS2" t="s">
         <v>88</v>
@@ -2422,136 +2422,136 @@
         <v>65</v>
       </c>
       <c r="BU2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BV2" t="s">
         <v>267</v>
       </c>
-      <c r="BV2" t="s">
+      <c r="BW2" t="s">
         <v>268</v>
       </c>
-      <c r="BW2" t="s">
+      <c r="BX2" t="s">
         <v>269</v>
       </c>
-      <c r="BX2" t="s">
+      <c r="BY2" t="s">
         <v>270</v>
       </c>
-      <c r="BY2" t="s">
-        <v>271</v>
-      </c>
       <c r="BZ2" t="s">
+        <v>272</v>
+      </c>
+      <c r="CA2" t="s">
         <v>273</v>
       </c>
-      <c r="CA2" t="s">
+      <c r="CB2" t="s">
         <v>274</v>
       </c>
-      <c r="CB2" t="s">
+      <c r="CC2" t="s">
         <v>275</v>
       </c>
-      <c r="CC2" t="s">
+      <c r="CD2" t="s">
         <v>276</v>
-      </c>
-      <c r="CD2" t="s">
-        <v>277</v>
       </c>
       <c r="CE2" t="s">
         <v>62</v>
       </c>
       <c r="CF2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="CG2" t="s">
         <v>72</v>
       </c>
       <c r="CH2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="CI2" t="s">
         <v>64</v>
       </c>
       <c r="CJ2" t="s">
+        <v>279</v>
+      </c>
+      <c r="CK2" t="s">
         <v>280</v>
       </c>
-      <c r="CK2" t="s">
+      <c r="CL2" t="s">
         <v>281</v>
       </c>
-      <c r="CL2" t="s">
+      <c r="CM2" t="s">
         <v>282</v>
       </c>
-      <c r="CM2" t="s">
+      <c r="CN2" t="s">
         <v>283</v>
       </c>
-      <c r="CN2" t="s">
+      <c r="CO2" t="s">
         <v>284</v>
       </c>
-      <c r="CO2" t="s">
+      <c r="CP2" t="s">
         <v>285</v>
       </c>
-      <c r="CP2" t="s">
+      <c r="CQ2" t="s">
         <v>286</v>
-      </c>
-      <c r="CQ2" t="s">
-        <v>287</v>
       </c>
       <c r="CR2" t="s">
         <v>59</v>
       </c>
       <c r="CS2" t="s">
+        <v>287</v>
+      </c>
+      <c r="CT2" t="s">
         <v>288</v>
       </c>
-      <c r="CT2" t="s">
+      <c r="CU2" t="s">
         <v>289</v>
-      </c>
-      <c r="CU2" t="s">
-        <v>290</v>
       </c>
       <c r="CV2" t="s">
         <v>82</v>
       </c>
       <c r="CW2" t="s">
+        <v>290</v>
+      </c>
+      <c r="CX2" t="s">
         <v>291</v>
       </c>
-      <c r="CX2" t="s">
+      <c r="CY2" t="s">
         <v>292</v>
       </c>
-      <c r="CY2" t="s">
+      <c r="CZ2" t="s">
         <v>293</v>
       </c>
-      <c r="CZ2" t="s">
+      <c r="DA2" t="s">
         <v>294</v>
       </c>
-      <c r="DA2" t="s">
+      <c r="DB2" t="s">
         <v>295</v>
-      </c>
-      <c r="DB2" t="s">
-        <v>296</v>
       </c>
       <c r="DC2" t="s">
         <v>81</v>
       </c>
       <c r="DD2" t="s">
+        <v>296</v>
+      </c>
+      <c r="DE2" t="s">
         <v>297</v>
       </c>
-      <c r="DE2" t="s">
+      <c r="DF2" t="s">
         <v>298</v>
       </c>
-      <c r="DF2" t="s">
+      <c r="DG2" t="s">
         <v>299</v>
       </c>
-      <c r="DG2" t="s">
+      <c r="DH2" t="s">
         <v>300</v>
       </c>
-      <c r="DH2" t="s">
+      <c r="DI2" t="s">
         <v>301</v>
       </c>
-      <c r="DI2" t="s">
+      <c r="DJ2" t="s">
         <v>302</v>
       </c>
-      <c r="DJ2" t="s">
+      <c r="DK2" t="s">
         <v>303</v>
       </c>
-      <c r="DK2" t="s">
+      <c r="DL2" t="s">
         <v>304</v>
-      </c>
-      <c r="DL2" t="s">
-        <v>305</v>
       </c>
       <c r="DM2" t="s">
         <v>78</v>
@@ -2563,193 +2563,193 @@
         <v>67</v>
       </c>
       <c r="DP2" t="s">
+        <v>305</v>
+      </c>
+      <c r="DQ2" t="s">
         <v>306</v>
       </c>
-      <c r="DQ2" t="s">
+      <c r="DR2" t="s">
         <v>307</v>
       </c>
-      <c r="DR2" t="s">
+      <c r="DS2" t="s">
         <v>308</v>
       </c>
-      <c r="DS2" t="s">
+      <c r="DT2" t="s">
         <v>309</v>
-      </c>
-      <c r="DT2" t="s">
-        <v>310</v>
       </c>
       <c r="DU2" t="s">
         <v>61</v>
       </c>
       <c r="DV2" t="s">
+        <v>310</v>
+      </c>
+      <c r="DW2" t="s">
         <v>311</v>
       </c>
-      <c r="DW2" t="s">
+      <c r="DX2" t="s">
         <v>312</v>
       </c>
-      <c r="DX2" t="s">
+      <c r="DY2" t="s">
         <v>313</v>
       </c>
-      <c r="DY2" t="s">
+      <c r="DZ2" t="s">
         <v>314</v>
       </c>
-      <c r="DZ2" t="s">
+      <c r="EA2" t="s">
         <v>315</v>
       </c>
-      <c r="EA2" t="s">
+      <c r="EB2" t="s">
         <v>316</v>
       </c>
-      <c r="EB2" t="s">
+      <c r="EC2" t="s">
         <v>317</v>
       </c>
-      <c r="EC2" t="s">
+      <c r="ED2" t="s">
         <v>318</v>
       </c>
-      <c r="ED2" t="s">
+      <c r="EE2" t="s">
         <v>319</v>
       </c>
-      <c r="EE2" t="s">
+      <c r="EF2" t="s">
         <v>320</v>
       </c>
-      <c r="EF2" t="s">
+      <c r="EG2" t="s">
         <v>321</v>
       </c>
-      <c r="EG2" t="s">
+      <c r="EH2" t="s">
         <v>322</v>
       </c>
-      <c r="EH2" t="s">
+      <c r="EI2" t="s">
         <v>323</v>
       </c>
-      <c r="EI2" t="s">
-        <v>324</v>
-      </c>
       <c r="EJ2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="EK2" t="s">
         <v>79</v>
       </c>
       <c r="EL2" t="s">
+        <v>326</v>
+      </c>
+      <c r="EM2" t="s">
         <v>327</v>
       </c>
-      <c r="EM2" t="s">
+      <c r="EN2" t="s">
         <v>328</v>
       </c>
-      <c r="EN2" t="s">
+      <c r="EO2" t="s">
         <v>329</v>
       </c>
-      <c r="EO2" t="s">
+      <c r="EP2" t="s">
         <v>330</v>
       </c>
-      <c r="EP2" t="s">
+      <c r="EQ2" t="s">
         <v>331</v>
       </c>
-      <c r="EQ2" t="s">
+      <c r="ER2" t="s">
         <v>332</v>
       </c>
-      <c r="ER2" t="s">
+      <c r="ES2" t="s">
         <v>333</v>
-      </c>
-      <c r="ES2" t="s">
-        <v>334</v>
       </c>
       <c r="ET2" t="s">
         <v>68</v>
       </c>
       <c r="EU2" t="s">
+        <v>334</v>
+      </c>
+      <c r="EV2" t="s">
         <v>335</v>
       </c>
-      <c r="EV2" t="s">
+      <c r="EW2" t="s">
         <v>336</v>
       </c>
-      <c r="EW2" t="s">
+      <c r="EX2" t="s">
         <v>337</v>
-      </c>
-      <c r="EX2" t="s">
-        <v>338</v>
       </c>
       <c r="EY2" t="s">
         <v>84</v>
       </c>
       <c r="EZ2" t="s">
+        <v>338</v>
+      </c>
+      <c r="FA2" t="s">
         <v>339</v>
       </c>
-      <c r="FA2" t="s">
+      <c r="FB2" t="s">
+        <v>324</v>
+      </c>
+      <c r="FC2" t="s">
         <v>340</v>
       </c>
-      <c r="FB2" t="s">
-        <v>325</v>
-      </c>
-      <c r="FC2" t="s">
+      <c r="FD2" t="s">
         <v>341</v>
       </c>
-      <c r="FD2" t="s">
+      <c r="FE2" t="s">
         <v>342</v>
       </c>
-      <c r="FE2" t="s">
+      <c r="FF2" t="s">
         <v>343</v>
       </c>
-      <c r="FF2" t="s">
+      <c r="FG2" t="s">
         <v>344</v>
       </c>
-      <c r="FG2" t="s">
+      <c r="FH2" t="s">
         <v>345</v>
       </c>
-      <c r="FH2" t="s">
+      <c r="FI2" t="s">
         <v>346</v>
       </c>
-      <c r="FI2" t="s">
+      <c r="FJ2" t="s">
         <v>347</v>
-      </c>
-      <c r="FJ2" t="s">
-        <v>348</v>
       </c>
       <c r="FK2" t="s">
         <v>83</v>
       </c>
       <c r="FL2" t="s">
+        <v>348</v>
+      </c>
+      <c r="FM2" t="s">
         <v>349</v>
-      </c>
-      <c r="FM2" t="s">
-        <v>350</v>
       </c>
       <c r="FN2" t="s">
         <v>74</v>
       </c>
       <c r="FO2" t="s">
+        <v>386</v>
+      </c>
+      <c r="FP2" t="s">
+        <v>387</v>
+      </c>
+      <c r="FQ2" t="s">
         <v>388</v>
       </c>
-      <c r="FP2" t="s">
+      <c r="FR2" t="s">
         <v>389</v>
       </c>
-      <c r="FQ2" t="s">
+      <c r="FS2" t="s">
         <v>390</v>
       </c>
-      <c r="FR2" t="s">
+      <c r="FT2" t="s">
         <v>391</v>
       </c>
-      <c r="FS2" t="s">
+      <c r="FU2" t="s">
         <v>392</v>
       </c>
-      <c r="FT2" t="s">
+      <c r="FV2" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="FU2" t="s">
+      <c r="FW2" s="4" t="s">
         <v>394</v>
-      </c>
-      <c r="FV2" s="4" t="s">
-        <v>395</v>
-      </c>
-      <c r="FW2" s="4" t="s">
-        <v>396</v>
       </c>
       <c r="FX2" s="4" t="s">
         <v>63</v>
       </c>
       <c r="FY2" s="4" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="FZ2" s="4" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:182" x14ac:dyDescent="0.2">
@@ -2787,13 +2787,13 @@
         <v>106</v>
       </c>
       <c r="M3" t="s">
+        <v>355</v>
+      </c>
+      <c r="N3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O3" t="s">
         <v>356</v>
-      </c>
-      <c r="N3" t="s">
-        <v>358</v>
-      </c>
-      <c r="O3" t="s">
-        <v>357</v>
       </c>
       <c r="P3" t="s">
         <v>103</v>
@@ -2868,208 +2868,208 @@
         <v>108</v>
       </c>
       <c r="AX3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>350</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>350</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BG3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BH3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BI3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BJ3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BL3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BM3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BN3" t="s">
+        <v>107</v>
+      </c>
+      <c r="BO3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BP3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BQ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BR3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BS3" t="s">
+        <v>108</v>
+      </c>
+      <c r="BT3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BU3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BV3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BW3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BX3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BY3" t="s">
+        <v>58</v>
+      </c>
+      <c r="BZ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CA3" t="s">
+        <v>107</v>
+      </c>
+      <c r="CB3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CC3" t="s">
+        <v>108</v>
+      </c>
+      <c r="CD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CE3" t="s">
+        <v>108</v>
+      </c>
+      <c r="CF3" t="s">
+        <v>108</v>
+      </c>
+      <c r="CG3" t="s">
+        <v>107</v>
+      </c>
+      <c r="CH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CJ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CK3" t="s">
+        <v>108</v>
+      </c>
+      <c r="CL3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CM3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CN3" t="s">
+        <v>107</v>
+      </c>
+      <c r="CO3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CP3" t="s">
+        <v>107</v>
+      </c>
+      <c r="CQ3" t="s">
+        <v>107</v>
+      </c>
+      <c r="CR3" t="s">
+        <v>108</v>
+      </c>
+      <c r="CS3" t="s">
+        <v>107</v>
+      </c>
+      <c r="CT3" t="s">
+        <v>108</v>
+      </c>
+      <c r="CU3" t="s">
+        <v>107</v>
+      </c>
+      <c r="CV3" t="s">
         <v>351</v>
       </c>
-      <c r="AZ3" t="s">
-        <v>351</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>351</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BD3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BE3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BF3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BG3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BH3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BI3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BJ3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BK3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BL3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BM3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BN3" t="s">
-        <v>107</v>
-      </c>
-      <c r="BO3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BP3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BQ3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BR3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BS3" t="s">
-        <v>108</v>
-      </c>
-      <c r="BT3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BU3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BV3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BW3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BX3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BY3" t="s">
-        <v>58</v>
-      </c>
-      <c r="BZ3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CA3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CB3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CC3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CD3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CE3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CF3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CG3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CH3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CI3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CJ3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CK3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CL3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CM3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CN3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CO3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CP3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CQ3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CR3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CS3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CT3" t="s">
-        <v>108</v>
-      </c>
-      <c r="CU3" t="s">
-        <v>107</v>
-      </c>
-      <c r="CV3" t="s">
+      <c r="CW3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CX3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CY3" t="s">
+        <v>58</v>
+      </c>
+      <c r="CZ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DA3" t="s">
+        <v>107</v>
+      </c>
+      <c r="DB3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DC3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DD3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DE3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DF3" t="s">
+        <v>108</v>
+      </c>
+      <c r="DG3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DH3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DI3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DJ3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DK3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DL3" t="s">
+        <v>58</v>
+      </c>
+      <c r="DM3" t="s">
+        <v>108</v>
+      </c>
+      <c r="DN3" t="s">
         <v>352</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CX3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CY3" t="s">
-        <v>58</v>
-      </c>
-      <c r="CZ3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DA3" t="s">
-        <v>107</v>
-      </c>
-      <c r="DB3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DC3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DD3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DE3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DF3" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DH3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DI3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DJ3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DK3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DL3" t="s">
-        <v>58</v>
-      </c>
-      <c r="DM3" t="s">
-        <v>108</v>
-      </c>
-      <c r="DN3" t="s">
-        <v>353</v>
       </c>
       <c r="DP3" t="s">
         <v>107</v>
@@ -3251,13 +3251,13 @@
         <v>58</v>
       </c>
       <c r="M4" t="s">
+        <v>355</v>
+      </c>
+      <c r="N4" t="s">
+        <v>360</v>
+      </c>
+      <c r="O4" t="s">
         <v>356</v>
-      </c>
-      <c r="N4" t="s">
-        <v>361</v>
-      </c>
-      <c r="O4" t="s">
-        <v>357</v>
       </c>
       <c r="P4" t="s">
         <v>103</v>
@@ -3266,7 +3266,7 @@
         <v>58</v>
       </c>
       <c r="R4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="S4" t="s">
         <v>107</v>
@@ -3539,7 +3539,7 @@
         <v>108</v>
       </c>
       <c r="DN4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="DP4" t="s">
         <v>108</v>
@@ -3721,13 +3721,13 @@
         <v>58</v>
       </c>
       <c r="M5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="N5" t="s">
+        <v>361</v>
+      </c>
+      <c r="O5" t="s">
         <v>362</v>
-      </c>
-      <c r="O5" t="s">
-        <v>363</v>
       </c>
       <c r="P5" t="s">
         <v>103</v>
@@ -3982,7 +3982,7 @@
         <v>107</v>
       </c>
       <c r="DO5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="DP5" t="s">
         <v>107</v>
@@ -4158,13 +4158,13 @@
         <v>58</v>
       </c>
       <c r="M6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O6" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P6" t="s">
         <v>104</v>
@@ -4619,13 +4619,13 @@
         <v>58</v>
       </c>
       <c r="M7" t="s">
+        <v>355</v>
+      </c>
+      <c r="N7" t="s">
+        <v>364</v>
+      </c>
+      <c r="O7" t="s">
         <v>356</v>
-      </c>
-      <c r="N7" t="s">
-        <v>365</v>
-      </c>
-      <c r="O7" t="s">
-        <v>357</v>
       </c>
       <c r="P7" t="s">
         <v>104</v>
@@ -4721,7 +4721,7 @@
         <v>58</v>
       </c>
       <c r="BE7" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="BF7" t="s">
         <v>58</v>
@@ -4895,7 +4895,7 @@
         <v>108</v>
       </c>
       <c r="DO7" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="DP7" t="s">
         <v>107</v>
@@ -5080,13 +5080,13 @@
         <v>58</v>
       </c>
       <c r="M8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P8" t="s">
         <v>104</v>
@@ -5550,13 +5550,13 @@
         <v>58</v>
       </c>
       <c r="M9" t="s">
+        <v>355</v>
+      </c>
+      <c r="N9" t="s">
+        <v>366</v>
+      </c>
+      <c r="O9" t="s">
         <v>356</v>
-      </c>
-      <c r="N9" t="s">
-        <v>367</v>
-      </c>
-      <c r="O9" t="s">
-        <v>357</v>
       </c>
       <c r="P9" t="s">
         <v>103</v>
@@ -5634,7 +5634,7 @@
         <v>108</v>
       </c>
       <c r="AW9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="AZ9" t="s">
         <v>108</v>
@@ -6008,13 +6008,13 @@
         <v>58</v>
       </c>
       <c r="M10" t="s">
+        <v>367</v>
+      </c>
+      <c r="N10" t="s">
         <v>368</v>
       </c>
-      <c r="N10" t="s">
-        <v>369</v>
-      </c>
       <c r="O10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P10" t="s">
         <v>104</v>
@@ -6478,13 +6478,13 @@
         <v>58</v>
       </c>
       <c r="M11" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="N11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P11" t="s">
         <v>104</v>
@@ -6567,7 +6567,7 @@
         <v>108</v>
       </c>
       <c r="AZ11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="BB11" t="s">
         <v>58</v>
@@ -6932,13 +6932,13 @@
         <v>58</v>
       </c>
       <c r="M12" t="s">
+        <v>355</v>
+      </c>
+      <c r="N12" t="s">
+        <v>370</v>
+      </c>
+      <c r="O12" t="s">
         <v>356</v>
-      </c>
-      <c r="N12" t="s">
-        <v>371</v>
-      </c>
-      <c r="O12" t="s">
-        <v>357</v>
       </c>
       <c r="P12" t="s">
         <v>103</v>
@@ -7387,13 +7387,13 @@
         <v>58</v>
       </c>
       <c r="M13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="N13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="O13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P13" t="s">
         <v>104</v>
@@ -7850,13 +7850,13 @@
         <v>58</v>
       </c>
       <c r="M14" t="s">
+        <v>371</v>
+      </c>
+      <c r="N14" t="s">
         <v>372</v>
       </c>
-      <c r="N14" t="s">
-        <v>373</v>
-      </c>
       <c r="O14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P14" t="s">
         <v>104</v>
@@ -8277,13 +8277,13 @@
     </row>
     <row r="15" spans="1:182" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>373</v>
+      </c>
+      <c r="B15" t="s">
         <v>374</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>375</v>
-      </c>
-      <c r="C15" t="s">
-        <v>376</v>
       </c>
       <c r="E15" t="s">
         <v>50</v>
@@ -8301,22 +8301,22 @@
         <v>54</v>
       </c>
       <c r="J15" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="K15" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="K15" t="s">
-        <v>58</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>380</v>
-      </c>
       <c r="M15" t="s">
         <v>58</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>103</v>
@@ -8376,7 +8376,7 @@
         <v>108</v>
       </c>
       <c r="DY15" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="FH15" t="s">
         <v>108</v>
@@ -8420,13 +8420,13 @@
     </row>
     <row r="16" spans="1:182" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>373</v>
+      </c>
+      <c r="B16" t="s">
         <v>374</v>
       </c>
-      <c r="B16" t="s">
-        <v>375</v>
-      </c>
       <c r="C16" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E16" t="s">
         <v>50</v>
@@ -8444,22 +8444,22 @@
         <v>54</v>
       </c>
       <c r="J16" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="K16" t="s">
+        <v>58</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>381</v>
       </c>
-      <c r="K16" t="s">
-        <v>58</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>382</v>
-      </c>
       <c r="M16" t="s">
         <v>58</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="O16" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>103</v>
